--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_10.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_10.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_10_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3436,4 +3437,7645 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B762"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>模糊</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>关键词</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>群号</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>放大镜</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>无关</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>度</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>号</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>难度</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>数据库</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>框内</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>所示</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>随机</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>算法</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>精确</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>开头</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>搜索算法</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>群号码</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>分类</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>易用性</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>左侧</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>较慢</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>差异</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>手机号</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>路径</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>用途</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>即时</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>筛选</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>长时间</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>消耗</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>序列</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>完全一致</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>周董</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>关联</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>方法</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>即当</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>联想</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>详细信息</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>符</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>两种</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>联系</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>trim</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>人时</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>利用</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>相关性</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>杰伦</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>特殊字符</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>依然</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>涉及</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>目标</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>质量</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>编辑框</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>横条</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>前三位</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>条目</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>确实</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>仅能</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>属于</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>便捷性</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>公众</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>字符串</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>相似</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>无疑</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>热门</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>遭遇</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>搜索词</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>一连串</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>本应</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>向下</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>想</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>规律</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>15439337</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>频繁</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>无效</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>小图标</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>处</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>转变成</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>bbmsjshsm</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>不精确性</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>来得</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>使用者</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>被困</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>出现异常</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>很多</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>中有</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>力度</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>而群</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>在内</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>辨识</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>连续</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>错乱</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>含带</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>增大</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>为群</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>充分利用</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>toast</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>相关度</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>叉号</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>jay</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>应为</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>程序</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>只会</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>对齐</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>居中</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>第二个</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>并列</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>处于</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>一会</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>隔</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>更慢</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>教高</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>成功率</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>上去</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>框后</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>截取</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>含有</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>误导性</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>上面</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>最高</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>标出</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>意识</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>并不需要</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>何类</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>系统对</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>陷入</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>挫败</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>回车</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>旁</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>双</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>网速</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>能查</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>框都</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>框找</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>回应</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>得不到</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>成本</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>正确区分</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>功能设计</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>全名</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>较长</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>高到</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>分</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>无需</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>被邀请者</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>局限</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>体验性</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>很难</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>过多</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>圆圈</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>若干条</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>迷</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>小杰</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>前列</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>精确度</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>建设</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>左边</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>搜索引擎</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>不太</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>分行</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>申请理由</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>友好度</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>启动</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>信任</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>对系统</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>刚刚</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>仍会</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>有所不同</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>历史记录</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>历史纪录</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>也就是说</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>tab</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>地址栏</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>反应速度</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>一串</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>遮挡</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>全部内容</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>命名</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>平板</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>字样</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>白框</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>分是</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>较差</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>效果显著</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>信息反馈</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>断网</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>大多数</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>框时</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>误判</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>排</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>不久</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>单击</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>充分</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>不高</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>少时</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>总体而言</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>abk</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>18kt</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>却是</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>相匹配</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>空字符</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>拨打</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>号码</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>相符</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>符合条件</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>仅限于</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>加错</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>重输</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>字段</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>美观</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>逻辑性</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>完整性</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>低下</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>一段时间</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>时间差</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>首字母</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>杰</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>转圈</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>受到限制</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>社交互动</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>特定条件</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>法</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>时有时无</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>主将</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>语句</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>大大降低</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>本例</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>文本框</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>没有响应</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>加上</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>暗示</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>…</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>全群</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>第一项</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>当用</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>不确定性</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>真的</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>定位</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>回车键</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>过多且</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>库</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>无规律</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>刚</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>通讯</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>原</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>栏下</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>偏差</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>数据处理</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>寻求</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>过滤</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>数据源</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>现有</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>框在</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>中文</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>扩展</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>预料</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>预测</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>系统资源</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>耗时</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>过度</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>哪种</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>适用</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>难以确定</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>离开</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>第二位</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>倒数</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>群排</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>&gt;</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>引导性</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>何种</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>所有人</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>隐私权</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>群刚</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>有时候</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>便捷</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>结尾</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>受限</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>个人用户</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>极差</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>应立即</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>空时</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>空搜索</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>呈现出</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>值时</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>空且</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>框为</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>非所选</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>视图</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>组织</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>开发人员</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>相差</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>已知</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>帮助</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>感知</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>感兴趣</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>广泛</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>印象</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>网站</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>留下</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>几张</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>第二</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>显示方式</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>久</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>时要</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>顺序排列</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>激活状态</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>滚动</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>浏览</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>列出</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>同样</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>如图</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>旋转</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>变得复杂</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>图二</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>图五</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>二中</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>后部</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>第一</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>12340</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>混合</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>理应</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>报告</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>每一项</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_10.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_10.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,3000 +437,4590 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000009192</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>在用户尝试发起群聊并搜索群组成员时，搜索功能似乎存在缺陷。当用户输入关键字进行搜索时，非好友的账户信息也出现在了搜索结果中，这可能导致用户的困扰和混淆。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>发起 群聊 搜索 群 组成员 搜索 缺陷 输入 关键字 进行 搜索 非 好友 账户 信息 出现 搜索 困扰 混淆</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000009452</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>该界面在用户尝试通过输入一串数字查找群组时，未能提供任何搜索结果。此外，系统也没有显示预期的Toast提示消息，告知用户没有搜索结果。这可能导致用户感到困惑和挫败，因为他们没有得到关于搜索失败的任何反馈。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>界面 输入 一串 数字 查找 群组 未能 提供 搜索 系统 没有 预期 Toast 提示 消息 告知 没有 搜索 感到 困惑 挫败 没有 得到 搜索 失败 反馈</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000008269</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>在搜索界面中，当用户尝试使用模糊搜索功能时，输入的关键字之间不应包含其他字符。当前的问题是，如果用户输入的关键字之间有间隔或其他字符，系统无法正确匹配关键词并显示相应的群组。这导致用户无法根据他们想要的部分关键词来找到所需的群组。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>搜索 界面 模糊 搜索 输入 关键字 之间 应 包含 字符 当前 输入 关键字 之间 间隔 字符 系统 无法 正确 匹配 关键词 相应 群组 无法 想要 部分 关键词 找到 需 群组</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008608</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>该搜索功能存在漏洞，用户可以输入任意长度的关键字进行搜索。此行为没有限制或提示，可能导致系统资源过度消耗或搜索结果不准确。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>搜索 漏洞 输入 任意 长度 关键字 进行 搜索 行为 没有 限制 提示 系统资源 过度 消耗 搜索 准确</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000009202</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件在用户搜索并加入群聊后，其搜索结果中的群聊人数信息没有更新。即使用户已经离开并再次返回搜索框，显示的人数仍然是错误的，没有反映出用户已经退出了该群聊。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>搜索 加入 群聊 搜索 群聊 人数 信息 没有 更新 离开 再次 返回 搜索 框 人数 仍然 错误 没有 反映 出 退出 群聊</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000009068</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>该软件的搜索功能存在严重的缺陷。根据提供的页面截图，用户在搜索栏中输入关键词时，系统仅能返回与该群聊相关的信息，无法搜索到其他群聊或用户的任何消息。这明显违反了一般搜索功能的常规理解，即应该能够搜索并返回所有与关键字有关联的信息。此外，这种设计限制了用户的搜索范围，使得用户无法获取到他们可能感兴趣的更广泛信息。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>搜索 严重 缺陷 提供 页面 截图 搜索 栏中 输入 关键词 系统 仅能 返回 群聊 相关 信息 无法 搜索 群聊 消息 明显 违反 搜索 常规 理解 应该 能够 搜索 返回 关键字 关联 信息 设计 限制 搜索 范围 无法 获取 感兴趣 更 广泛 信息</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000008884</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>搜索时，群名称1，只能进行模糊搜索无法完成测试需求中的根据群名称模糊/完全匹配搜索，导致用户无法准确找到所需的群组。此外，搜索结果中包含的信息与关键字110不完全一致，使得用户在查看详细信息时可能会遇到混淆或误解。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>搜索 群 名称 只能 进行 模糊 搜索 无法 完成 需求 群 名称 模糊 / 完全 匹配 搜索 无法 准确 找到 需 群组 搜索 包含 信息 关键字 110 完全一致 查看 详细信息 遇到 混淆 误解</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008815</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>该软件的搜索功能似乎存在模糊匹配的问题，导致用户无法进行完全精确的搜索。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>搜索 模糊 匹配 无法 进行 完全 精确 搜索</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000009002</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>在查找群的搜索过程中，当用户尝试输入特定的数字序列如"123, 110"等时，搜索结果与用户的查询意图不符。此外，搜索框没有给出任何提示或指导说明用户应如何进行此类型的搜索。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>查找 群 搜索 过程 输入 特定 数字 序列 " 123 ,   110 " 搜索 查询 意图 不符 搜索 框 没有 给出 提示 指导 说明 应 进行 类型 搜索</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009332</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>在聊天记录的搜索功能中，无法进行搜索操作。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>聊天记录 搜索 无法 进行 搜索</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000008989</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>该软件界面中，当用户点击群号码时，预期的功能是能够进行搜索以查看群的详细信息。但在实际的操作中，只显示了拨打号码的选项，而没有提供搜索功能，导致用户无法通过点击群号码来获取更多关于该群的信息。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>界面 点击 群号码 预期 能够 进行 搜索 查看 群 详细信息 拨打 号码 选项 没有 提供 搜索 无法 点击 群号码 获取 更 该群 信息</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008198</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>该软件在创建群聊时，当用户尝试通过搜索功能添加联系人时，搜索结果与输入的搜索条件不匹配。尽管用户输入了正确的搜索条件，但系统返回的搜索结果是与输入条件无关的其他用户。这是一个明显的bug，因为它违反了用户的期望，即他们应该只看到与他们的搜索条件相符的结果。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>创建 群聊 搜索 添加 联系人 搜索 输入 搜索 匹配 输入 正确 搜索 系统 返回 搜索 输入 无关 明显 违反 期望 应该 看到 搜索 相符</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008022</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>该软件在添加成员功能上存在明显缺陷。首先，搜索选项仅限于用户名，导致用户无法通过其他方式（如账号）进行搜索，这大大降低了搜索效率和准确性。其次，与其他通讯软件的联系人关联查找功能未能实现，使得用户无法利用现有的社交网络来扩展成员库。这些问题严重影响了用户体验和软件的实用性。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>添加 成员 明显 缺陷 搜索 选项 仅限于 用户名 无法 方式 账号 进行 搜索 大大降低 搜索 效率 准确性 通讯 软件 联系人 关联 查找 未能 实现 无法 利用 现有 社交 网络 扩展 成员 库 严重 软件 实用性</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008840</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>当一个群只有群主一个人时，该群无法被搜索到。（如果是自己的群，则仍然可以被搜索到）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>群 群主 人时 该群 无法 搜索 群 仍然 搜索</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008017</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>这个bug发生在一个联系人搜索功能中，当用户在文本框前后加上空格时，无法正常查询到相关的联系人信息。这可能是因为对输入的文本进行了trim()方法处理，该方法用于删除字符串开头和结尾的空白字符。但在本例中，即使文本前后有空格，trim()方法并未正确执行，导致搜索结果不准确。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>发生 联系人 搜索 文本框 加上 空格 无法 正常 查询 相关 联系人 信息 是因为 输入 文本 进行 trim ( ) 方法 处理 方法 用于 删除 字符串 开头 结尾 空白 字符 本例 文本 空格 trim ( ) 方法 并未 正确 执行 搜索 准确</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008577</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>该搜索框在接收用户输入的SQL语句时出现了严重的性能问题。用户在输入后，搜索界面会持续地加载和转圈，无法正常显示任何数据。这可能导致用户体验下降，并可能对软件的整体功能性产生负面影响。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>搜索 框在 接收 输入 SQL 语句 出现 严重 性能 输入 搜索 界面 持续 加载 转圈 无法 正常 数据 下降 软件 整体 功能性 产生 负面影响</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008201</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>在搜索群组时，输入一个表情，搜索结果与预料不符合。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>搜索 群组 输入 表情 搜索 预料 符合</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008233</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>在群组界面中，当尝试使用数字“1”作为搜索关键字时，搜索功能似乎出现了故障，无法正确返回预期的结果。此外，在“最近联系人”中输入数字进行搜索时，同样遭遇了搜索结果异常的问题。这些现象表明软件在处理特定格式的搜索请求时存在缺陷。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>群组 界面 数字 搜索 关键字 搜索 出现 故障 无法 正确 返回 预期 最近 联系人 输入 数字 进行 搜索 同样 遭遇 搜索 异常 现象 表明 软件 处理 特定 格式 搜索 请求 缺陷</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000008655</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>在进入群组信息并尝试添加群成员后，搜索功能似乎出现了异常。当用户点击放大镜进行搜索时，他们可以找到的所有人都可以被直接拉入该群组，这显然违反了正常的操作流程和预期。此行为不仅可能违反用户的隐私权，而且对其他群成员也造成了不必要的干扰。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>进入 群组 信息 添加 群 成员 搜索 出现 异常 点击 放大镜 进行 搜索 找到 所有人 拉入 群组 显然 违反 正常 预期 行为 违反 隐私权 群 成员 造成 不必要 干扰</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008429</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>该软件在执行搜索群组功能时，存在一个显示问题。当用户尝试搜索关键词“周董”，而数据库中没有完整的匹配项（如只有“周董好”）时，软件并未提供相似结果的提示。此外，软件似乎无法识别并截取关键词“周董”，导致搜索结果不完整。这可能会给用户带来混淆和不便，因为他们可能期望看到与输入关键词相关的所有信息，即使这些信息并不完全匹配他们的搜索词。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>执行 搜索 群组 搜索 关键词 周董 数据库 没有 完整 匹配 项 周董 软件 并未 提供 相似 提示 软件 无法 识别 截取 关键词 周董 搜索 完整 带来 混淆 不便 期望 看到 输入 关键词 相关 信息 信息 完全 匹配 搜索词</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000007986</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>在手机搜索应用界面中，当用户在搜索框内输入群名称进行搜索后，再次尝试搜索时发现之前的搜索记录已被清除。这意味着如果用户想重复搜索相同的内容，他们必须重新手动输入，这无疑增加了用户的不便和时间消耗。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>手机 搜索 应用 界面 搜索 框内 输入 群 名称 进行 搜索 再次 搜索 发现 之前 搜索 记录 清除 意味着 想 重复 搜索 相同 内容 必须 重新 手动 输入 无疑 增加 不便 时间 消耗</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000008166</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>在显示搜索条件的匹配结果时，系统存在误判现象，即当用户输入“1111”作为关键词进行搜索时，出现了大量与“1111”无关的搜索结果。这些结果可能是由于系统未能正确区分通过账号和关键字两种搜索方式导致的，导致无关的群组信息也被展示出来。这可能会对用户的搜索体验造成困扰，并影响他们获取相关信息的效率。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>搜索 匹配 系统 误判 现象 即当 输入 1111 关键词 进行 搜索 出现 大量 1111 无关 搜索 系统 未能 正确区分 账号 关键字 两种 搜索 方式 无关 群组 信息 展示 搜索 造成 困扰 获取 相关 信息 效率</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009979</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>在查找群功能中，当用户在搜索框输入一个字符进行搜索时，系统返回了与预期不符的搜索结果。具体来说，即使名字中没有该字符，系统仍显示了一些群组作为搜索结果。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>查找 群 搜索 框 输入 字符 进行 搜索 系统 返回 预期 不符 搜索 具体来说 名字 没有 字符 系统 群组 搜索</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008474</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>该软件在搜索群聊时存在显示问题。首先，当用户进行搜索操作时，软件没有提供任何正在搜索的视觉提示，如旋转的加载圆圈，导致用户无法判断搜索是否正在进行或已完成。其次，如果搜索失败，软件并未给出任何错误提示或相应的群聊信息，这使得用户难以理解为何没有找到他们搜索的群聊。最后，在网络连接中断的情况下，软件也没有为用户提供断网提醒，这可能导致用户在不知情的情况下无法正常使用软件的功能。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>搜索 群聊 进行 搜索 软件 没有 提供 正在 搜索 视觉 提示 旋转 加载 圆圈 无法 判断 搜索 是否 正在 进行 完成 搜索 失败 软件 并未 给出 错误 提示 相应 群聊 信息 难以 理解 没有 找到 搜索 群聊 最后 网络连接 中断 情况 软件 没有 提供 断网 提醒 不知情 情况 无法 正常 软件</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008757</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>该软件在搜索群组时存在缺陷，当用户输入群名称进行搜索且未找到相关群组时，系统并未提供任何反馈信息。这使得用户无法准确判断是搜索失败还是该群组实际上不存在，从而影响了用户体验。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>搜索 群组 缺陷 输入 群 名称 进行 搜索 未找到 相关 群组 系统 并未 提供 反馈 信息 无法 准确 判断 搜索 失败 群组 实际上</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000009145</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>该软件在搜索群号加群的功能中存在显示问题。用户通过群号码搜索时，虽然能匹配到群名称，但搜索结果并没有明确标出群号码，导致用户无法准确识别并加入他们想要的群组。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>搜索 群号 加群 群号码 搜索 匹配 群 名称 搜索 没有 明确 标出 群号码 无法 准确 识别 加入 想要 群组</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008210</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该搜索功能存在缺陷，无法精确匹配用户。当按数字进行搜索时，返回的结果与输入的数字不完全一致，导致搜索结果的不精确性。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>搜索 缺陷 无法 精确 匹配 数字 进行 搜索 返回 输入 数字 完全一致 搜索 不精确性</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000009690</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>在搜索群时，当未找到相关结果时，界面并未提供任何提示信息，导致用户无法得知是否进行了正确的搜索操作。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>搜索 群时 未找到 相关 界面 并未 提供 提示信息 无法 得知 是否 进行 正确 搜索</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009890</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>描述：在尝试搜索群组时，当用户输入一连串的空格字符作为搜索内容时，应用程序似乎陷入了无响应的状态。长时间的等待后，程序没有提供任何搜索结果或反馈，表明它可能未能正确处理这种特定的输入情况。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>搜索 群组 输入 一连串 空格 字符 搜索 内容 应用程序 陷入 响应 状态 长时间 等待 程序 没有 提供 搜索 反馈 表明 未能 正确处理 特定 输入 情况</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000009934</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>在搜索联系人时，用户尝试在搜索框中输入一连串的空格字符。系统似乎无法正确处理这种输入，导致其持续处于搜索状态，并且长时间没有给出响应。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>搜索 联系人 搜索 框中 输入 一连串 空格 字符 系统 无法 正确处理 输入 持续 处于 搜索 状态 长时间 没有 给出 响应</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000008659</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>加入群搜索群名,完全匹配的群,排在搜索列表最后</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>加入 群 搜索 群名 , 完全 匹配 群 , 排 搜索 列表 最后</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000008163</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该搜索结果页面显示的群成员列表没有按照预期的功能进行排序，而是呈现出随机或混乱的顺序。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>搜索 页面 群 成员 列表 没有 预期 进行 排序 呈现出 随机 混乱 顺序</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000008397</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>每次在搜索框中，输入40进行模糊搜索查找群组时，得到的结果和预期相差比较大，没有按照搜索关键字的顺序对结果排序，例如:结果排名第一的是12340，而不是408，按照搜索逻辑，理应先列出408。如下面几张截图所示。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>每次 搜索 框中 输入 40 进行 模糊 搜索 查找 群组 得到 预期 相差 比较 没有 搜索 关键字 顺序 排序 : 排名 第一 12340 408 搜索 逻辑 理应 先 列出 408 下面 几张 截图 所示</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000008502</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>在执行第二部分的步骤时，即通过点击群组、选择更多选项、进入假如群并查找群的功能时，当搜索框中输入“40”作为群名进行模糊搜索后，系统并未正确排序显示的结果。实际上，虽然搜索结果中出现了许多与“40”开头相关的群组，但这些群组并没有按照预期的字母顺序排列。用户需要向下滚动才能找到以“408”开头的群组。这与用户的预期不符，预期结果是所有搜索到的群组都应按照“40”开头的名称进行排序。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>执行 第二 部分 点击 群组 选择 更 选项 进入 群 查找 群 搜索 框中 输入 40 群名 进行 模糊 搜索 系统 并未 正确 排序 实际上 搜索 出现 40 开头 相关 群组 群组 没有 预期 字母 顺序排列 向下 滚动 找到 408 开头 群组 预期 不符 预期 搜索 群组 应 40 开头 名称 进行 排序</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000008230</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>应用查找群，要先点击搜索框才能输入，不方便用户。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>应用 查找 群 先 点击 搜索 框 输入 方便</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008538</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>该软件在用户界面设计上存在明显缺陷，页面布局缺乏逻辑性和完整性。同时，搜索功能效率低下，导致用户在查找聊天记录时遭遇延迟。此外，界面中出现了两个放大镜图标，可能是搜索功能的标识，但其实际功能并未得到充分展示或使用，这可能增加了用户的困惑和操作难度。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>用户界面 设计 明显 缺陷 页面 布局 缺乏 逻辑性 完整性 搜索 效率 低下 查找 聊天记录 遭遇 延迟 界面 出现 两个 放大镜 图标 搜索 标识 并未 得到 充分 展示 增加 困惑 难度</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000010000</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>问题描述：在模糊搜索群名时，如果用户输入的关键字与某个群的名称完全一致，系统无法显示该群作为搜索结果。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>模糊 搜索 群名 输入 关键字 群 名称 完全一致 系统 无法 该群 搜索</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000008512</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>搜索功能显示的结果与预期不符，导致用户无法找到他们想要的信息。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>搜索 预期 不符 无法 找到 想要 信息</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000008598</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>3.群名允许相同，这样用户在搜索该群的时候，容易出现“加错群”现象。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>. 群名 允许 相同 搜索 该群 容易 出现 加错 群 现象</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000009899</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>在群搜索功能中，用户输入的搜索内容与显示的搜索结果不匹配。部分搜索结果包含了与用户输入内容无关的选项，这导致了搜索结果数量过多且难以筛选。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>群 搜索 输入 搜索 内容 搜索 匹配 部分 搜索 包含 输入 内容 无关 选项 搜索 数量 过多且 难以 筛选</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000009191</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>该bug描述了在系统刚进入时，搜索栏下显示的“热门群推荐”标签的问题。当用户在搜索栏中输入大量信息后，这个标签有时会出现或消失。点击“X”删除输入的信息后，标签有可能消失。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>系统 刚 进入 搜索 栏下 热门 群 推荐 标签 搜索 栏中 输入 大量 信息 标签 出现 消失 点击 X 删除 输入 信息 标签 消失</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000009036</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该搜索功能似乎存在排序混乱的问题，导致无关的用户名出现在结果中。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>搜索 排序 混乱 无关 用户名 出现</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009732</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>搜索群，显示匹配的群，但是没有进行排序</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>搜索 群 匹配 群 没有 进行 排序</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000008761</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>在搜索群时，显示的群名称没有按照预期的字符串匹配规律进行排序。例如，“允许任何人…”本应作为搜索结果的第一项展示，但当前显示的顺序与这一要求不符。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>搜索 群时 群 名称 没有 预期 字符串 匹配 规律 进行 排序 允许 任何人 … 本应 搜索 第一项 展示 当前 顺序 要求 不符</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000009738</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>该模糊查找功能存在缺陷，无法正确定位到完整的匹配内容。在执行查找操作时，比如输入“123”，结果并未显示“123”作为匹配项的最顶部结果，这导致用户难以准确找到他们想要的内容。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>模糊 查找 缺陷 无法 正确 定位 完整 匹配 内容 执行 查找 输入 123 并未 123 匹配 项 顶部 难以 准确 找到 想要 内容</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000009848</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>这个软件的搜索功能似乎出现了问题。当用户尝试搜索群号时，系统无法找到匹配的结果，并且没有给出任何提示或错误信息。这可能是因为系统的搜索算法存在问题，或者数据库中确实不存在该群号。此外，由于缺乏反馈机制，用户无法得知是群号不正确还是群号真的不存在，这增加了用户操作的难度和不确定性。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>软件 搜索 出现 搜索 群号 系统 无法 找到 匹配 没有 给出 提示 错误信息 是因为 系统 搜索算法 数据库 确实 该群 号 缺乏 反馈 机制 无法 得知 群 号 正确 群号 真的 增加 难度 不确定性</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000009704</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>当用群号搜索群时，有时搜索不到或搜索不全群。当创建几个名称相同的群时。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>当用 群号 搜索 群时 搜索 不到 搜索 全群 创建 几个 名称 相同 群时</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000009327</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>该图像显示了一个手机屏幕，其中有一个搜索框和一个结果列表。在搜索框内，用户输入了某个群的信息，但设置了“不可加入”的查询条件。然而，结果显示的内容与一个错误ID相对应，这个ID可能是错误的或者与用户的查询无关。这暗示了一个软件或系统的错误，它没有正确地处理用户的查询请求，而是返回了错误的信息。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>手机 屏幕 搜索 框 列表 搜索 框内 输入 群 信息 设置 不可 加入 查询 结果显示 内容 错误 ID 相对 应 ID 错误 查询 无关 暗示 软件 系统 错误 没有 正确 处理 查询 请求 返回 错误 信息</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008882</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>在朋友-我的群组-加入群的界面中，当用户点击查找群时，应用没有响应。必须点击右侧的搜索图标才能激活搜索功能。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>朋友 - 群组 - 加入 群 界面 点击 查找 群时 应用 没有响应 必须 点击 右侧 搜索 图标 激活 搜索</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000009065</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该软件在执行“朋友-我的群组-更多-加入群”操作时，出现了搜索功能异常的问题。当用户在搜索栏输入想要添加的群名称并点击搜索标志进行搜索时，搜索功能并未如预期那样工作。无论是直接点击搜索图标还是在手机上输入群名后按回车键进行搜索，软件均未产生任何反应。此问题可能影响用户添加群组的功能体验，导致用户无法成功找到并加入他们想要的群组。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>执行 朋友 - 群组 - 更 - 加入 群 出现 搜索 异常 搜索 栏 输入 想要 添加 群 名称 点击 搜索 标志 进行 搜索 搜索 并未 预期 工作 无论是 点击 搜索 图标 手机 输入 群名 回车键 进行 搜索 软件 均 未 产生 反应 添加 群组 无法 成功 找到 加入 想要 群组</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008990</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>问题描述：当用户在搜索栏中输入“110”时，系统返回的群组列表与预期不符，显示的群组名称与用户输入的内容不匹配。此外，该搜索结果界面并未提供明确的提示，告知用户是按照群号还是群名称进行搜索的。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>搜索 栏中 输入 110 系统 返回 群组 列表 预期 不符 群组 名称 输入 内容 匹配 搜索 界面 并未 提供 明确 提示 告知 群号 群 名称 进行 搜索</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009108</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>在搜索框中输入一个确实存在的群名，但搜索不到。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>搜索 框中 输入 确实 群名 搜索 不到</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000009033</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>这个软件在搜索群组功能上存在一个模糊匹配的bug。当用户尝试输入中文关键词进行搜索时，系统似乎无法完全或准确地识别和匹配相关的群组名称，导致返回的结果不完整或者与用户的搜索意图不符。这可能会影响用户的使用体验，因为他们可能找不到他们想要查找的群组。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>软件 搜索 群组 模糊 匹配 输入 中文 关键词 进行 搜索 系统 无法 完全 准确 识别 匹配 相关 群组 名称 返回 完整 搜索 意图 不符 找 不到 想要 查找 群组</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000009056</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>该搜索功能出现了明显的错误，导致用户在尝试查找与搜索条件匹配的群组时，返回了不相关的结果。这些结果似乎是基于某种算法或数据源生成的，但显然没有正确地过滤出用户所寻求的信息。这可能意味着系统内部的某些逻辑或数据处理过程出现了偏差，需要进一步的分析和调整以确保搜索的准确性和相关性。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>搜索 出现 明显 错误 查找 搜索 匹配 群组 返回 相关 某种 算法 数据源 生成 显然 没有 正确 过滤 出 寻求 信息 意味着 系统 内部 逻辑 数据处理 过程 出现 偏差 进一步 分析 调整 确保 搜索 准确性 相关性</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000009128</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>该界面在搜索群组时没有显示任何结果，同时也没有提供任何提示信息。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>界面 搜索 群组 没有 没有 提供 提示信息</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009697</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>在输入部分群名时，出现了模糊搜索结果的问题。当用户在原搜索信息上添加了其他信息后，该模糊搜索功能似乎失效了，无法提供相应的搜索建议或结果。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>输入 部分 群名 出现 模糊 搜索 原 搜索 信息 添加 信息 模糊 搜索 失效 无法 提供 相应 搜索 建议</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000009429</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>在群搜索功能中，当用户输入的文本无规律时，即使没有找到相应的群组或成员，系统并没有提供任何提示信息。这可能会导致用户感到困惑和不便，因为他们无法得知搜索结果的具体原因。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>群 搜索 输入 文本 无规律 没有 找到 相应 群组 成员 系统 没有 提供 提示信息 感到 困惑 不便 无法 得知 搜索 具体 原因</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000009517</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该软件在尝试通过群号搜索时，无法正确显示或检索到相应的群组信息。用户尝试使用特定的群号进行搜索，但是系统没有返回预期的搜索结果，导致用户无法找到他们想要的群组。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>群号 搜索 无法 正确 检索 相应 群组 信息 特定 群号 进行 搜索 系统 没有 返回 预期 搜索 无法 找到 想要 群组</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000009251</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>该软件的搜索功能存在严重问题，导致用户在输入群名称进行搜索时，匹配的信息无法正确显示，且位置混乱，难以查找。此外，搜索结果中出现了大量同名的群组，这极大地降低了用户的使用体验和效率。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>搜索 严重 输入 群 名称 进行 搜索 匹配 信息 无法 正确 位置 混乱 难以 查找 搜索 出现 大量 同名 群组 极大 降低 效率</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009449</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>该软件在搜索功能上存在缺陷，无法找到已经存在的群聊。用户在搜索栏中输入群聊名称时，系统反馈的结果中并未包含已创建的群聊，这可能导致用户无法通过搜索功能快速找到他们想要加入或查看的群组。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>搜索 缺陷 无法 找到 群聊 搜索 栏中 输入 群聊 名称 系统 反馈 并未 包含 创建 群聊 无法 搜索 快速 找到 想要 加入 查看 群组</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009827</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>群组页面右上角—更多-“发起群聊”，搜索群，显示符合条件的群，但是没有经过匹配度排序。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>群组 页面 右上角 — 更 - 发起 群聊 搜索 群 符合条件 群 没有 匹配 度 排序</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>10010000008087</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>根据提供的问题描述和对应的图片，这个软件界面在用户尝试通过搜索来选择联系人时出现了一个bug。当用户在搜索栏中输入空格作为搜索内容时，系统仍然能够检索到并显示相关的联系人信息，这与预期的结果不符，因为预期结果是提示用户搜索内容不能为空。这可能表明软件在处理空字符或特殊字符（如空格）作为搜索条件时的响应逻辑存在问题。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>提供 对应 图片 软件 界面 搜索 选择 联系人 出现 搜索 栏中 输入 空格 搜索 内容 系统 仍然 能够 检索 相关 联系人 信息 预期 不符 预期 提示 搜索 内容 不能 为空 表明 软件 处理 空字符 特殊字符 空格 搜索 响应 逻辑</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008568</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>在群搜索功能中，当用户输入搜索内容2进行查找时，系统显示了与输入条件不匹配的群结果。预期结果是只展示与搜索条件相匹配的群，但实际却是出现了一些不符合搜索条件的群结果。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>群 搜索 输入 搜索 内容 进行 查找 系统 输入 匹配 群 预期 展示 搜索 相匹配 群 却是 出现 符合 搜索 群</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000008650</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>该搜索功能似乎未能正确识别和返回与输入数字相关的结果。用户输入的数字“18KT”并未在搜索结果中出现，这表明搜索机制可能无法处理或理解这种类型的查询。此外，即使用户尝试使用更明确的搜索词（如“test”和“ABK”），结果也显示为模糊且不相关的内容，这进一步表明搜索算法可能存在问题。总体而言，这个bug导致用户难以通过搜索找到他们需要的信息。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>搜索 未能 正确 识别 返回 输入 数字 相关 输入 数字 18KT 并未 搜索 出现 表明 搜索 机制 无法 处理 理解 类型 查询 更 明确 搜索词 test ABK 模糊 相关 内容 进一步 表明 搜索算法 总体而言 难以 搜索 找到 信息</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000007996</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>当搜索条件较少时，搜索匹配度明显不高，有些搜索结果与搜索条件不符。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>搜索 少时 搜索 匹配 度 明显 不高 搜索 搜索 不符</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009660</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>该软件在执行群号搜索功能时出现了问题，导致用户无法通过群号找到相应的群。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>执行 群号 搜索 出现 无法 群号 找到 相应 群</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000008426</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>在查找群聊时，用户在进行模糊搜索后发现搜索结果的顺序似乎是随机的，没有明显的规律或排序标准。这可能意味着搜索算法没有正确地对结果进行排序，或者排序算法存在某种缺陷。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>查找 群聊 进行 模糊 搜索 发现 搜索 顺序 随机 没有 明显 规律 排序 标准 意味着 搜索算法 没有 正确 进行 排序 排序 算法 某种 缺陷</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000008297</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>输入查找信息后，界面内没有搜索按钮，是用不方便；</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>输入 查找 信息 界面 没有 搜索 按钮 方便</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000008299</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>在输入搜索信息后，当用户尝试单击“重输”按钮以清空文本时，系统并未成功执行该操作。文本字段中的信息依然存在，没有按照预期那样被清除。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>输入 搜索 信息 单击 重输 按钮 清空 文本 系统 并未 成功 执行 文本 字段 信息 依然 没有 预期 清除</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>10010000009750</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>该问题描述了一个软件的搜索功能异常。在群主将加入群设置为同意加入后，其他用户在进行搜索时有时无法找到相应的群组。这可能是由于软件的搜索算法存在问题，或者是群设置的某些特定条件导致的搜索结果不准确。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>软件 搜索 异常 群 主将 加入 群 设置 同意 加入 进行 搜索 时有时无 法 找到 相应 群组 软件 搜索算法 群 设置 特定条件 搜索 准确</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000008150</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>该软件中存在一个搜索功能的问题，当用户被拒绝加入某个群聊后，他们无法在搜索结果中找到对方创建的群聊。同时，对方也无法在搜索结果中找到该用户创建的群聊。这可能导致两个用户之间的社交互动受到限制。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>搜索 拒绝 加入 群聊 无法 搜索 找到 创建 群聊 无法 搜索 找到 创建 群聊 两个 之间 社交互动 受到限制</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000008886</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>问题描述：在软件的搜索功能中，当用户尝试输入特殊字符“x”和“d”时，系统无法正确显示群信息。同时，由于搜索响应时间过长，用户可能会误解为系统无法找到相关信息。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>软件 搜索 输入 特殊字符 x d 系统 无法 正确 群 信息 搜索 响应 时间 过长 误解 系统 无法 找到 相关 信息</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000009026</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>在查找群的时候，如果不存在该群名称，搜索结果界面没有任何反馈信息显示，导致用户无法得知是否查找的群组存在或已被删除。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>查找 群 该群 名称 搜索 界面 没有 反馈 信息 无法 得知 是否 查找 群组 删除</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000009479</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>在软件的群组搜索功能中，当用户使用关键字“杰伦”和“杰”进行查找时，系统未能返回任何相关的群组信息。此外，该功能的联系人搜索功能也存在缺陷，显示的联系人数并不完整或准确。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>软件 群组 搜索 关键字 杰伦 杰 进行 查找 系统 未能 返回 相关 群组 信息 联系人 搜索 缺陷 联系 人数 完整 准确</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000009328</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>在群管理界面的搜索功能中，当用户尝试通过输入群成员名字的首字母来查找时，系统无法准确地显示出正确的搜索结果。</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>群 管理 界面 搜索 输入 群 成员 名字 首字母 查找 系统 无法 准确 出 正确 搜索</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000009367</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>在添加成员界面的搜索框中输入关键词后，显示的结果与输入的关键词不匹配，无法正确展示与输入相关的信息。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>添加 成员 界面 搜索 框中 输入 关键词 输入 关键词 匹配 无法 正确 展示 输入 相关 信息</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000009746</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>该搜索加入群的功能在用户输入关键字后，显示的群信息有延迟。具体来说，当用户点击搜索按钮后，群信息的加载并不是立即完成的，而是有一个明显的时间差，导致用户在看到搜索结果之前需要等待一段时间。这种延迟可能会影响用户的使用体验，使得他们感到不便或沮丧。</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>搜索 加入 群 输入 关键字 群 信息 延迟 具体来说 点击 搜索 按钮 群 信息 加载 立即 完成 明显 时间差 看到 搜索 之前 等待 一段时间 延迟 感到 不便 沮丧</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>10010000008754</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>该搜索功能在日期筛选时存在视觉和功能性问题。右侧的搜索符图标似乎并未与实际功能对应，使得用户难以理解其用途。此外，这个图标的存在也影响了界面的整体布局和美观，导致用户体验下降。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>搜索 日期 筛选 视觉 功能性 右侧 搜索 符 图标 并未 对应 难以 理解 用途 图标 界面 整体 布局 美观 下降</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000008524</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>在聊天记录界面中，文字搜索与限定日期的搜索标志重叠，导致用户在执行搜索操作时可能产生混淆和误操作。这种设计布局不仅影响了用户的使用体验，还可能导致用户无法准确找到他们需要的信息。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>聊天记录 界面 文字 搜索 限定 日期 搜索 标志 重叠 执行 搜索 产生 混淆 误操作 设计 布局 无法 准确 找到 信息</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000009027</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>该软件界面设计在用户搜索群或人时存在逻辑问题。用户无法直接在搜索栏中输入查询，而是需要点击右上角的放大镜图标才能开始搜索。这样的设计增加了用户的使用难度和不便，因为它要求用户执行额外的步骤来完成一个本应是即时响应的操作。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>界面设计 搜索 群 人时 逻辑 无法 搜索 栏中 输入 查询 点击 右上角 放大镜 图标 搜索 设计 增加 难度 不便 要求 执行 额外 完成 本应 即时 响应</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000008291</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>该软件界面显示了一个搜索功能的页面，但在该页面上出现了两个重复的搜索图标。尽管只有一个搜索图标是激活状态，但两个图标的存在导致了不必要的混淆和可能的功能冲突。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>界面显示 搜索 页面 页面 出现 两个 重复 搜索 图标 搜索 图标 激活状态 两个 图标 不必要 混淆 冲突</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000009666</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>在搜索群23时，23不在搜索的最前面而在很后面，搜索时要找很久才能找到</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>搜索 群 23 23 搜索 前面 后面 搜索 时要 找 久 找到</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000009942</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>在查找群功能中，当用户在搜索框内输入内容时，显示结果与用户的输入不符。具体来说，搜索结果展示的是群的名称，而没有明确说明是按群名还是群ID进行搜索的。这种显示方式不清晰，可能会导致用户误解其搜索结果，从而产生错误的联想或混淆。</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>查找 群 搜索 框内 输入 内容 输入 不符 具体来说 搜索 展示 群 名称 没有 明确 说明 群名 群 ID 进行 搜索 显示方式 清晰 误解 搜索 产生 错误 联想 混淆</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000009721</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>该搜索界面在接收到用户输入后，未能正确响应并展示预期的搜索结果。页面下方出现了空白区域，没有文字和图片显示，这可能会给用户留下网站功能失效或内容缺失的印象。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>搜索 界面 接收 输入 未能 正确 响应 展示 预期 搜索 页面 下方 出现 空白 区域 没有 文字 图片 留下 网站 失效 内容 缺失 印象</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000009924</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>该搜索界面中的日期搜索功能存在视觉和交互问题。左侧的搜索符图标似乎并未与实际功能关联，导致用户难以理解其用途。同时，这个图标的位置可能会干扰到用户的布局感知，使得整个搜索区域的使用体验下降。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>搜索 界面 日期 搜索 视觉 交互 左侧 搜索 符 图标 并未 关联 难以 理解 用途 图标 位置 干扰 布局 感知 整个 搜索 区域 下降</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>10010000008186</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>该搜索结果展示不准确，导致用户在查找群聊时，无法直接找到最匹配的群聊。这可能会造成用户的不便和困扰，因为他们需要花费更多的时间来浏览和筛选搜索结果，而不是直接看到他们想要找的内容。</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>搜索 展示 准确 查找 群聊 无法 找到 匹配 群聊 造成 不便 困扰 花费 更 时间 浏览 筛选 搜索 看到 想要 找 内容</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000008162</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>在搜索框中，点击添加成员的按钮会导致搜索功能失效，必须点击放大镜图标才能进行搜索。</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>搜索 框中 点击 添加 成员 按钮 搜索 失效 必须 点击 放大镜 图标 进行 搜索</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000007950</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>在搜索添加好友功能中，当用户随机输入信息时，系统推荐的用户列表与用户实际输入的搜索信息存在不一致性。</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>搜索 添加 好友 随机 输入 信息 系统 推荐 列表 输入 搜索 信息 不一致性</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000008021</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>在添加好友功能中，搜索结果的排序似乎存在一些问题。用户使用关键字进行搜索时，即使输入的关键字与搜索结果中的某个条目完全匹配，该条目仍然会出现在搜索结果的后部，使得用户难以找到并添加他们需要联系的好友。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>添加 好友 搜索 排序 关键字 进行 搜索 输入 关键字 搜索 条目 完全 匹配 条目 仍然 出现 搜索 后部 难以 找到 添加 联系 好友</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000008958</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>该软件测试报告中的bug表现为：在群搜索功能中，用户通过输入群号和名称进行查找时，搜索结果并未按照预期的方式被区分。具体来说，不同条件下的搜索结果混合在一起，没有明显的分类或排序机制，导致用户难以从结果中快速找到他们想要的信息。</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>软件测试 报告 表现 群 搜索 输入 群号 名称 进行 查找 搜索 并未 预期 方式 区分 具体来说 不同 搜索 混合 一起 没有 明显 分类 排序 机制 难以 快速 找到 想要 信息</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000008254</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>这个bug涉及创建群聊的界面设计问题。在图二中，搜索标志和添加成员按钮的布局不符合用户习惯，导致用户难以找到直接搜索成员的功能。此外，当用户点击搜索标志进行搜索后返回前一个页面时，他们期望回到上一界面（图五），但实际上只回到了图二所示界面。这些问题可能会影响用户在使用该功能时的体验，使得创建群聊的过程变得复杂和不直观。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>涉及 创建 群聊 界面设计 图 二中 搜索 标志 添加 成员 按钮 布局 符合 习惯 难以 找到 搜索 成员 点击 搜索 标志 进行 搜索 返回 前 页面 期望 回到 界面 图五 实际上 回到 图二 所示 界面 创建 群聊 过程 变得复杂 直观</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000008923</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>该界面在加入群聊过程中存在搜索功能，用户可以在图三所示的界面上输入群名称进行搜索。如果系统中存在与输入的群名称匹配的群聊，系统将显示如图四所示的信息。然而，如果系统中不存在与输入的群名称匹配的群聊，系统没有任何提示信息，这是不符合常规的用户交互逻辑的。用户在搜索无结果时应该得到某种形式的反馈，以帮助他们理解他们的搜索条件是否正确或者是否需要调整他们的搜索条件。</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>界面 加入 群聊 过程 搜索 图 三 所示 界面 输入 群 名称 进行 搜索 系统 输入 群 名称 匹配 群聊 系统 如图 四 所示 信息 系统 输入 群 名称 匹配 群聊 系统 没有 提示信息 符合 常规 交互 逻辑 搜索 应该 得到 某种 形式 反馈 帮助 理解 搜索 是否 正确 是否 调整 搜索</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000008395</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>该软件在好友搜索功能中存在缺陷。当用户尝试使用已知的新建群组的群号进行搜索时，系统无法正确识别并展示相应的结果。相反，系统仅能处理与个人相关的搜索请求，导致用户无法通过群号查找到他们想要加入的群组。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>好友 搜索 缺陷 已知 新建 群组 群号 进行 搜索 系统 无法 正确 识别 展示 相应 相反 系统 仅能 处理 个人 相关 搜索 请求 无法 群号 查找 想要 加入 群组</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000009115</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>搜索框中未提供适当的提示信息，用户无法明确知道应输入何种类型的关键字进行搜索。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>搜索 框中 未 提供 适当 提示信息 无法 明确 知道 应 输入 何种 类型 关键字 进行 搜索</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10010000009176</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>该功能未按预期工作。在查找群的功能中，搜索框没有提供必要的提示信息来指导用户如何进行搜索。例如，它没有明确显示“输入群名/群号模糊搜索”这样的引导性文字，导致用户可能不知道如何使用这个搜索功能或感到困惑。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>未 预期 工作 查找 群 搜索 框 没有 提供 必要 提示信息 指导 进行 搜索 没有 明确 输入 群名 / 群号 模糊 搜索 引导性 文字 知道 搜索 感到 困惑</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000009435</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>加入群-&gt;搜索群的功能，搜索结果应按匹配程度进行排序，如名称为789的群，按789为关键字搜索，该群排在倒数第二位</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>加入 群 - &gt; 搜索 群 搜索 应 匹配 程度 进行 排序 名称 789 群 789 关键字 搜索 群排 倒数 第二位</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000008604</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>在多个搜索框功能中，用户可能会对某些特定功能的用途感到混淆。例如，“朋友界面的搜索”和“群聊的搜索”这两个选项可能没有明确的指示或区分，导致用户难以确定哪个功能适用于哪种类型的搜索。这种不明确的功能描述可能会导致用户体验上的困扰和误解。</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>多个 搜索 框 特定 用途 感到 混淆 朋友 界面 搜索 群聊 搜索 两个 选项 没有 明确 指示 区分 难以确定 适用 哪种 类型 搜索 明确 困扰 误解</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000009450</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>在查找群功能中，当用户尝试使用表情符号作为搜索关键词时，返回的搜索结果与用户的期望不符。</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>查找 群 表情符号 搜索 关键词 返回 搜索 期望 不符</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000008220</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>利用关键词搜索群的时候，没有根据搜索内容进行联想，只有在按下搜索按钮后才有内容。</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>利用 关键词 搜索 群 没有 搜索 内容 进行 联想 搜索 按钮 内容</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000008960</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>该软件的查找群或添加成员功能存在严重的用户体验问题。用户在尝试进行搜索或添加操作时，必须点击搜索图标才能触发相应的反应，而无法通过图标所在的其他位置进行交互。这种设计导致用户在使用这些功能时需要额外的点击步骤，增加了操作的复杂性和耗时，从而降低了整体的用户满意度和效率。</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>查找 群 添加 成员 严重 进行 搜索 添加 必须 点击 搜索 图标 触发 相应 反应 无法 图标 位置 进行 交互 设计 额外 点击 增加 复杂性 耗时 降低 整体 满意度 效率</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000009635</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>该软件在查找群聊时出现了排序错误，当用户输入“杰伦”进行搜索后，结果并未按照热度、人数或其他可预测的排序规则进行排列。这可能导致用户难以根据预期找到他们想要的结果，建议开发人员对排序算法进行调整，确保搜索结果能够提供给用户一个清晰的、有组织的视图。</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>查找 群聊 出现 排序 错误 输入 杰伦 进行 搜索 并未 热度 人数 预测 排序 规则 进行 排列 难以 预期 找到 想要 建议 开发人员 排序 算法 进行 调整 确保 搜索 能够 提供 清晰 组织 视图</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10010000008556</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>该软件界面在搜索功能中存在一个逻辑错误。用户在选择特定日期进行搜索后，仍可以使用文字搜索选项来检索非所选日期的消息内容。这可能会导致用户在尝试查找特定日期的消息时得到不相关的结果，从而影响其使用体验。</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>界面 搜索 逻辑 错误 选择 特定 日期 进行 搜索 文字 搜索 选项 检索 非所选 日期 消息 内容 查找 特定 日期 消息 得到 相关</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10010000008137</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>根据您提供的图片和问题描述，这是一个软件界面的问题。在创建群聊并尝试使用搜索功能添加联系人时，当搜索框为空且未输入任何值时，点击搜索按钮后系统无响应，没有弹出预期的提示信息。这可能表明软件在处理空搜索请求时存在缺陷，未能正确触发相应的反馈机制或提示用户输入内容。</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>提供 图片 软件 界面 创建 群聊 搜索 添加 联系人 搜索 框为 空且 未 输入 值时 点击 搜索 按钮 系统 响应 没有 弹 出 预期 提示信息 表明 软件 处理 空搜索 请求 缺陷 未能 正确 触发 相应 反馈 机制 提示 输入 内容</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10010000008705</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>问题描述：
 在加入群的搜索界面中，当搜索条件为空时，系统没有给出任何提示，导致用户不清楚应该如何操作。预期中，当用户点击搜索后应立即得到一个提示，告知他们搜索内容不能为空。但在实际测试中，点击搜索后系统没有任何反应或提示。</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t xml:space="preserve">
  加入 群 搜索 界面 搜索 空时 系统 没有 给出 提示 清楚 应该 预期 点击 搜索 应立即 得到 提示 告知 搜索 内容 不能 为空 点击 搜索 系统 没有 反应 提示</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10010000008544</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>这个界面的设计存在明显的不一致性和复杂性，导致用户体验极差。在朋友界面中，搜索按钮只能用于查找个人用户或已加入的群组，而不能搜索整个群聊。点击群组后，搜索功能进一步受限，只能搜索到已经加入的群组。而要查找并添加新的群组，用户需要经过多个步骤，包括点击更多按钮、选择加入群选项、再点击搜索框，这样的操作流程既不直观也不便捷。这种设计使得用户难以快速找到他们想要的信息或功能，降低了应用的整体易用性。</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>界面 设计 明显 不一致性 复杂性 极差 朋友 界面 搜索 按钮 只能 用于 查找 个人用户 加入 群组 不能 搜索 整个 群聊 点击 群组 搜索 进一步 受限 只能 搜索 加入 群组 查找 添加 新 群组 多个 包括 点击 更 按钮 选择 加入 群 选项 点击 搜索 框 直观 便捷 设计 难以 快速 找到 想要 信息 降低 应用 整体 易用性</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10010000009845</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>搜索群时，有时候会无法搜索到，特别是在群刚建立不久，也就是说系统更新较慢，不能及时将新添加的群组更新上去，导致搜索不到。搜索群号成功率教高，搜索名字更新更慢，需要隔一会才能搜索到。</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>搜索 群时 有时候 无法 搜索 特别 群刚 建立 不久 也就是说 系统 更新 较慢 不能 及时 新 添加 群组 更新 上去 搜索 不到 搜索 群号 成功率 教高 搜索 名字 更新 更慢 隔 一会 搜索</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10010000008489</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>问题描述：搜索功能在用户输入关键字后未显示匹配结果，仅呈现空白页面，导致用户无法判断搜索是否成功或需继续尝试其他关键词。</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>搜索 输入 关键字 未 匹配 仅 呈现 空白 页面 无法 判断 搜索 是否 成功 需 继续 关键词</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10010000007979</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>这个软件界面显示了一个聊天记录查询的页面，其中右侧的搜索图标出现了视觉错误。具体来说，有两个搜索图标并列出现，而第二个图标没有正确居中对齐，导致用户在使用时会感到困惑，不知道应该点击哪个图标进行搜索。此外，下方的按钮似乎并不具有预期的功能，这可能会进一步降低用户体验。</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>软件 界面显示 聊天记录 查询 页面 右侧 搜索 图标 出现 视觉 错误 具体来说 两个 搜索 图标 并列 出现 第二个 图标 没有 正确 居中 对齐 时会 感到 困惑 知道 应该 点击 图标 进行 搜索 下方 按钮 具有 预期 进一步 降低</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10010000009179</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>在查找群功能中，当用户尝试搜索一个不存在的群组时，系统没有提供任何提示信息或错误消息。相反，用户只会看到一个空白界面，没有任何反应表明搜索正在进行或已经完成。这可能会让用户感到困惑，不知道他们的搜索是否成功或者是否有任何问题。</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>查找 群 搜索 群组 系统 没有 提供 提示信息 错误 消息 相反 只会 看到 空白 界面 没有 反应 表明 搜索 正在 进行 完成 感到 困惑 知道 搜索 是否 成功 是否</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10010000008234</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>搜索群应该有搜索字数限制！搜索按钮应为用户提供！</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>搜索 群 应该 搜索 字数 限制 搜索 按钮 应为 提供</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10010000009771</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>在搜索关键字“Jay”时，结果显示的群组并未按照预期进行排序，导致用户难以快速找到所需的信息。这种情况可能会降低用户的搜索效率和满意度，从而影响整体的用户体验。</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>搜索 关键字 Jay 结果显示 群组 并未 预期 进行 排序 难以 快速 找到 需 信息 情况 降低 搜索 效率 满意度 整体</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10010000008037</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>该软件在用户搜索好友时存在一个显示问题，即当用户点击搜索结果列表中的叉号关闭搜索框后，之前已显示的搜索成功的好友信息全部消失。这可能导致用户误操作后需重新进行搜索，影响了用户体验的便捷性。</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>搜索 好友 即当 点击 搜索 列表 叉号 关闭 搜索 框后 之前 搜索 成功 好友 信息 消失 误操作 需 重新 进行 搜索 便捷性</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10010000008042</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>点击搜索框，输入群信息，无法单独查找群，查找结果包括个人，群组，公众号等，属于用户体验bug</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>点击 搜索 框 输入 群 信息 无法 单独 查找 群 查找 包括 个人 群组 公众 号 属于</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10010000008132</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>该软件界面设计存在误导性，用户在“查找群”功能旁期望点击以输入搜索信息，但实际需要点击右上角的搜索图标才能触发搜索框的出现。这种设计差异可能导致用户操作时的困惑和不便。</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>界面设计 误导性 查找 群 旁 期望 点击 输入 搜索 信息 点击 右上角 搜索 图标 触发 搜索 框 出现 设计 差异 困惑 不便</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10010000008051</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>在进行步骤2时，发现根据所要搜索的用户名字，出现的用户列表，没有按照用户名相似度排列。</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>进行 发现 搜索 名字 出现 列表 没有 用户名 相似 度 排列</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10010000008108</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>在添加好友的搜索界面中，用户尝试使用搜索栏中的○按钮进行搜索，但发现该功能无法正常工作。无论用户如何点击或按键盘上的任何键，只有通过手机输入软件的回车功能才能触发搜索。</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>添加 好友 搜索 界面 搜索 栏中 ○ 按钮 进行 搜索 发现 无法 正常 工作 点击 键盘 键 手机 输入 软件 回车 触发 搜索</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10010000008142</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>在软件的搜索功能中，当用户尝试通过手机号或昵称添加好友时，存在一个明显的bug。当用户输入手机号的前三位时，系统会展示多个推荐的好友，这是不正确的，因为此时用户可能只是随机输入了前三个数字，并没有进行实际的搜索。而当用户输入完整的7位手机号时，系统提示“无相关结果”，但此时用户可能只是输入了前三位。这说明系统对输入的处理存在问题，不能准确识别用户的输入意图和状态。</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>软件 搜索 手机号 昵称 添加 好友 明显 输入 手机号 前三位 系统 展示 多个 推荐 好友 正确 随机 输入 前 三个 数字 没有 进行 搜索 输入 完整 位 手机号 系统 提示 相关 输入 前三位 说明 系统对 输入 处理 不能 准确 识别 输入 意图 状态</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10010000009199</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>通过搜索框搜索联系人或添加群，搜索框内没有提示应该被搜索的何类信息。</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>搜索 框 搜索 联系人 添加 群 搜索 框内 没有 提示 应该 搜索 何类 信息</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10010000009446</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>该软件在搜索功能中存在一个bug，即当用户在搜索框中搜索到陌生人时，系统会自动将其添加进群聊，且在此过程中并不需要对方的同意。这可能导致了用户的困扰和不便，因为用户可能并未意识到他们的联系人已被添加到他们不知情的群聊中。</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>搜索 即当 搜索 框中 搜索 陌生人 系统 自动 添加 进 群聊 过程 并不需要 同意 困扰 不便 并未 意识 联系人 添加 不知情 群聊</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10010000008844</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>模糊搜索时查找出来的结果排序的分类不好。</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>模糊 搜索 查找 排序 分类 不好</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10010000008231</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>点击搜索按钮，输入群信息，在搜索结果中选择未加入的群，并点击，无法查看群信息，并提示未找到群资料，属于用户体验bug</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>点击 搜索 按钮 输入 群 信息 搜索 选择 未 加入 群 点击 无法 查看 群 信息 提示 未找到 群 资料 属于</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10010000008434</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>模糊搜索群信息，相关度最高的群信息不出现在最上面，需要向下查找才能发现目标。</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>模糊 搜索 群 信息 相关度 最高 群 信息 出现 上面 向下 查找 发现 目标</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10010000008245</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>在进行模糊信息搜索的时候，搜索结果没有按照含有模糊信息的多少一次呈现。有些没有含带信息的出现在了有信息的前面。</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>进行 模糊 信息 搜索 搜索 没有 含有 模糊 信息 一次 呈现 没有 含带 信息 出现 信息 前面</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10010000008953</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>复现步骤:在搜索框中搜索待加入的群聊，显示的结果不正确
 预期结果:当无完全匹配或者部分匹配时，显示无搜索结果</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>复现 : 搜索 框中 搜索 加入 群聊 正确 
  预期 : 完全 匹配 部分 匹配 搜索</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10010000008901</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>在软件界面中，当用户尝试搜索一个不存在的关键字“bbmsjshsm”时，系统似乎没有正确地响应。尽管用户输入了一个不在系统内的群名，但下方的“热门群推荐”信息栏并没有更新或出现相应的结果，也没有转变成“搜索结果”。这可能意味着软件在处理此类输入时存在逻辑错误或者反馈机制的缺陷。</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>软件 界面 搜索 关键字 bbmsjshsm 系统 没有 正确 响应 输入 系统 群名 下方 热门 群 推荐 信息 栏 没有 更新 出现 相应 没有 转变成 搜索 意味着 软件 处理 此类 输入 逻辑 错误 反馈 机制 缺陷</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10010000009048</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>该应用程序在尝试通过关键字查找群消息时未能提供适当的反馈。当用户输入的关键字没有匹配到任何群消息时，系统并未显示“无查找结果”的提示信息，导致用户无法得知搜索结果。</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>应用程序 关键字 查找 群 消息 未能 提供 适当 反馈 输入 关键字 没有 匹配 群 消息 系统 并未 查找 提示信息 无法 得知 搜索</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10010000009032</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>在查找群的页面上，用户界面设计存在不便之处。目前，用户必须点击搜索小图标才能输入群号进行查找，这一过程相对繁琐，不如直接在搜索栏中输入群号来得方便。这种设计增加了用户的操作步骤，可能导致用户体验下降，从而影响用户对应用的整体满意度。</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>查找 群 页面 用户界面 设计 不便 处 目前 必须 点击 搜索 小图标 输入 群号 进行 查找 这一 过程 相对 繁琐 搜索 栏中 输入 群号 来得 方便 设计 增加 操作步骤 下降 应用 整体 满意度</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10010000009390</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>该软件在执行群组搜索功能时存在一个明显的bug。当用户尝试查找不存在的群组并输入群号时，系统并未给出任何反馈信息，既没有显示搜索结果，也没有提供退出选项。用户会被困在当前页面，无法进行下一步操作。</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>执行 群组 搜索 明显 查找 群组 输入 群号 系统 并未 给出 反馈 信息 没有 搜索 没有 提供 退出 选项 被困 当前 页面 无法 进行 一步</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10010000008411</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>该软件界面在发起群聊时，未对搜索功能给予适当的用户提示。当前的设计导致用户可能误解只能从最近联系人中搜索群聊成员，而实际上用户可以搜索所有用户。这可能会导致用户无法充分利用该搜索功能，从而降低了软件的易用性。</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>界面 发起 群聊 未 搜索 给予 适当 提示 当前 设计 误解 只能 最近 联系人 搜索 群聊 成员 实际上 搜索 无法 充分利用 搜索 降低 软件 易用性</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10010000009227</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>该应用程序在搜索功能上存在缺陷，导致用户无法根据群名称找到相关内容。当用户尝试进行搜索时，页面没有给出任何提示或反馈，这可能会让用户感到困惑和沮丧。</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>应用程序 搜索 缺陷 无法 群 名称 找到 相关 内容 进行 搜索 页面 没有 给出 提示 反馈 感到 困惑 沮丧</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10010000008585</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>群搜索为群id以及群号同时搜索，增大了搜索结果数量，同时群id可以相同，影响了用户体验，并且结果排序不是按匹配度排序的</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>群 搜索 为群 id 群号 搜索 增大 搜索 数量 群 id 相同 排序 匹配 度 排序</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10010000008916</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>模糊搜索时，图片的匹配度较低，导致用户难以辨识和区分不同的结果。</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>模糊 搜索 图片 匹配 度 低 难以 辨识 区分 不同</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10010000008506</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>在查找群和添加成员界面中，用户无法直接进入搜索框进行搜索。必须首先点击放大镜图标，这增加了操作的复杂性，降低了用户体验的便捷性。</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>查找 群 添加 成员 界面 无法 进入 搜索 框 进行 搜索 必须 点击 放大镜 图标 增加 复杂性 降低 便捷性</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10010000009427</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>在搜索群聊时，当用户输入的字符无法找到相应的群聊时，系统并没有提供任何反馈信息。</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>搜索 群聊 输入 字符 无法 找到 相应 群聊 系统 没有 提供 反馈 信息</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10010000009422</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>搜索是如果是数字会将群的id也搜索在内，而群昵称中有很多不包含该数字，该情况会是使用这错乱，并且增加使用者的搜索力度，添加麻烦，可以设置两种搜索方式，“ID搜索”和“昵称搜索”这样应该能更方便用户。</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>搜索 数字 群 id 搜索 在内 而群 昵称 中有 很多 包含 数字 情况 错乱 增加 使用者 搜索 力度 添加 麻烦 设置 两种 搜索 方式 ID 搜索 昵称 搜索 应该 更 方便</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10010000009135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>在输入搜索条件后，系统未能提供“没有找到相关群”的提示信息。</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>输入 搜索 系统 未能 提供 没有 找到 相关 群 提示信息</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10010000008734</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>该软件在用户点击“加入群”后，搜索功能出现异常。用户需要连续多次点击“查找群”图标才能进入搜索条件输入界面，这导致用户在不知情的情况下频繁无效操作，增加了用户的使用困扰。此问题严重影响了用户体验，可能导致用户对软件的整体满意度下降。</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>点击 加入 群 搜索 出现异常 连续 多次 点击 查找 群 图标 进入 搜索 输入 界面 不知情 情况 频繁 无效 增加 困扰 严重 软件 整体 满意度 下降</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>10010000008808</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>在用户通过群号搜索时，该应用的界面设计存在明显的用户体验问题。当用户尝试搜索特定群组时，他们只能看到部分群名称（例如“测试2”）和不完整的数字序列（如“(4人)”）。只有当用户输入完整的数字序列（例如“15439337”）后，才能确定所显示的群组是哪一个。这种设计导致用户必须手动完成输入过程，这无疑增加了用户的使用难度和时间消耗，降低了整体的用户体验质量。</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>群号 搜索 应用 界面设计 明显 搜索 特定 群组 只能 看到 部分 群 名称 完整 数字 序列 ( ) 输入 完整 数字 序列 15439337 确定 群组 设计 必须 手动 完成 输入 过程 无疑 增加 难度 时间 消耗 降低 整体 质量</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10010000008682</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>在历史消息界面，双搜索放大镜图标的设计并不符合用户友好性原则。当用户试图使用这个功能进行关键词搜索时，系统的反应速度较慢，导致用户体验下降。这种设计可能会使用户感到困惑和不便，因为它并没有提供直观的搜索方式或快速的响应时间。</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>历史 消息 界面 双 搜索 放大镜 图标 设计 符合 友好 性 原则 试图 进行 关键词 搜索 系统 反应速度 较慢 下降 设计 感到 困惑 不便 没有 提供 直观 搜索 方式 快速 响应 时间</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>10010000008929</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>点击放大镜进入搜索界面在地址栏输入关键词没有提示信息比较模糊</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>点击 放大镜 进入 搜索 界面 地址栏 输入 关键词 没有 提示信息 比较 模糊</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>10010000008683</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>该软件界面在设计上存在明显的用户体验问题。用户无法直接在搜索栏中输入内容，而必须首先点击搜索栏才能开始输入，这样的设计增加了用户的使用难度和不便，导致整体的用户体验降低。</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>界面 设计 明显 无法 搜索 栏中 输入 内容 必须 点击 搜索 栏 输入 设计 增加 难度 不便 整体 降低</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10010000009010</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>这个bug涉及两个方面的用户体验问题。首先，在“朋友”tab下点击进入公众号后，点击右上角头像并选择“查看历史纪录”与常规的“查看历史记录”路径有所不同，可能导致用户混淆，这可能降低用户的满意度和操作效率。其次，在历史消息页面进行搜索时，即使输入的关键词在之前的聊天记录中不存在，系统仍会加载，并在搜索结果中显示“刚刚”，这与用户的期望不符，可能导致用户对系统的不信任。这两个问题都可能对用户的使用体验产生负面影响。</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>涉及 两个 方面 朋友 tab 点击 进入 公众 号 点击 右上角 头像 选择 查看 历史纪录 常规 查看 历史记录 路径 有所不同 混淆 降低 满意度 效率 历史 消息 页面 进行 搜索 输入 关键词 之前 聊天记录 系统 仍会 加载 搜索 刚刚 期望 不符 对系统 信任 两个 产生 负面影响</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>10010000009265</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>该软件界面在搜索并查找群功能中存在严重的问题。用户点击搜索后，原本应直接进入查找群的页面，但实际反应是必须先点击放大镜图标才能进入。这给用户带来了困扰和误导，因为这种设计违反了常规的用户交互流程，可能会导致用户在尝试使用这一功能时感到困惑和沮丧。</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>界面 搜索 查找 群 严重 点击 搜索 原本 应 进入 查找 群 页面 反应 必须 先 点击 放大镜 图标 进入 带来 困扰 误导 设计 违反 常规 交互 这一 感到 困惑 沮丧</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10010000009809</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>该软件的搜索功能在设计上存在缺陷。当用户试图在查找群功能的搜索框左侧进行点击操作以触发搜索时，系统并未响应此操作。这导致用户无法通过预期的方式启动搜索过程，降低了软件的用户友好度和易用性。</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>搜索 设计 缺陷 试图 查找 群 搜索 框 左侧 进行 点击 触发 搜索 系统 并未 响应 无法 预期 方式 启动 搜索 过程 降低 软件 友好度 易用性</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10010000009903</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>该软件在用户界面的编辑框中存在显示问题。具体来说，当用户在填写申请理由或搜索群的编辑框中输入内容时，这些信息没有按照预期那样分行显示，导致部分内容被遮挡，无法完全显示给用户看。这可能会影响用户的使用体验，因为他们可能无法看到他们输入的全部内容。</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>用户界面 编辑框 具体来说 填写 申请理由 搜索 群 编辑框 输入 内容 信息 没有 预期 分行 部分 内容 遮挡 无法 完全 无法 看到 输入 全部内容</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10010000008856</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>当搜索用户和群组的时候，在搜索框输入的文字字数没有做限制，但是给群命名时却做了限制。</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>搜索 群组 搜索 框 输入 文字 字数 没有 做 限制 群 命名 做 限制</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10010000008892</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>该软件界面设计存在冗余操作问题。用户在尝试添加好友或群组时，需要点击两个不同的图标：一个是加好友/群的图标，另一个是搜索图标。这导致了额外的步骤和不必要的复杂性，使得用户需要执行两次操作才能开始他们的搜索。这种设计冗余可能会降低用户体验，并可能导致用户感到困惑或沮丧。</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>界面设计 冗余 添加 好友 群组 点击 两个 不同 图标 加 好友 / 群 图标 搜索 图标 额外 不必要 复杂性 执行 两次 搜索 设计 冗余 降低 感到 困惑 沮丧</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10010000008993</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>该应用程序在执行查找群操作时，存在一个界面交互问题。当用户点击查找群的上方横条以期望出现搜索框时，该应用并未如预期那样展示搜索框，而是需要用户点击右上角的放大镜图标才能触发搜索功能。这与大多数应用中直接点击上方横条即可弹出搜索框的用户交互习惯存在显著差异，导致用户体验上的不便和困惑。</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>应用程序 执行 查找 群 界面 交互 点击 查找 群 上方 横条 期望 出现 搜索 框时 应用 并未 预期 展示 搜索 框 点击 右上角 放大镜 图标 触发 搜索 大多数 应用 点击 上方 横条 即可 弹 出 搜索 框 交互 习惯 显著 差异 不便 困惑</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10010000008970</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>在朋友-我的群组-更多-加入群的路径下，当用户试图通过搜索功能查找特定的群（例如“杰迷”）时，系统并未提供任何关于未找到相关群的信息反馈。此外，即使用户已经输入了搜索关键词，系统也无法即时响应并基于该关键词进行搜索。相反，用户只能从系统推荐的群列表中选择，或者删除当前的搜索关键词并重新输入来尝试。这导致了用户体验的不便，因为它限制了用户的搜索能力和即时反馈的需求。</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>朋友 - 群组 - 更 - 加入 群 路径 试图 搜索 查找 特定 群 杰迷 系统 并未 提供 未找到 相关 群 信息反馈 输入 搜索 关键词 系统 无法 即时 响应 关键词 进行 搜索 相反 只能 系统 推荐 群 列表 选择 删除 当前 搜索 关键词 重新 输入 不便 限制 搜索 能力 即时 反馈 需求</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10010000008849</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>该软件的搜索功能在群聊和好友查找上存在明显不便，与平板版本的QQ相比，用户体验效果显著较差。</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>搜索 群聊 好友 查找 明显 不便 平板 版本 QQ 相比 效果显著 较差</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10010000009070</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>在app的搜索功能中，用户无法清晰地区分是按照名称还是ID号进行搜索。这导致了搜索功能的混乱，使得用户在使用过程中可能会感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>app 搜索 无法 清晰 地区 分是 名称 ID 号 进行 搜索 搜索 混乱 过程 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10010000009329</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>该软件在执行群组查找功能时存在明显的bug。用户点击放大镜图标进行查找后，尝试点击左侧的白框或“查找群”字样进行操作时，软件并未产生任何响应。这意味着用户无法通过界面上的交互元素来进一步操作或确认他们的搜索结果，这极大地降低了用户体验并可能导致用户困惑。</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>执行 群组 查找 明显 点击 放大镜 图标 进行 查找 点击 左侧 白框 查找 群 字样 进行 软件 并未 产生 响应 意味着 无法 界面 交互 元素 进一步 确认 搜索 极大 降低 困惑</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10010000009474</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>该软件在进行搜索时，先显示的结果是模糊的，然后再显示准确的结果。这种设计不符合用户的期望和习惯，可能导致用户的困扰和不便，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>进行 搜索 先 模糊 准确 设计 符合 期望 习惯 困扰 不便</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10010000008863</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>该图像显示了一个手机搜索界面，其中“模糊搜索”的匹配度似乎较低。这可能意味着当用户使用模糊搜索时，返回的结果与他们的查询不太相关或不精确。这可能是由于搜索引擎算法的问题、数据库中的数据质量问题，或者是用户输入的查询与数据库中的记录之间的差异。</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>手机 搜索 界面 模糊 搜索 匹配 度 低 意味着 模糊 搜索 返回 查询 不太 相关 精确 搜索引擎 算法 数据库 数据 质量 输入 查询 数据库 记录 之间 差异</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10010000009665</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t>点击搜索图标左边不能进入搜索，必须点击搜索图标</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>点击 搜索 图标 左边 不能 进入 搜索 必须 点击 搜索 图标</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10010000009483</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>在软件的“邀请好友加群”功能中，存在一个bug，使得用户在邀请好友加入群聊时，被邀请者无需同意即可自动加入。此外，在“朋友”界面中搜索目标群时，出现了搜索失败的问题，导致用户无法通过搜索找到所需的群聊。</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>软件 邀请 好友 加群 邀请 好友 加入 群聊 被邀请者 无需 同意 即可 自动 加入 朋友 界面 搜索 目标 群时 出现 搜索 失败 无法 搜索 找到 需 群聊</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10010000009321</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>该软件在执行搜索功能时，未能有效地区分联系人和群组的搜索结果，导致用户难以快速找到所需的信息。</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>执行 搜索 未能 有效 地区 分 联系人 群组 搜索 难以 快速 找到 需 信息</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10010000009314</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5</v>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>点击搜索框：通过输入群相关信息，搜索APP内的群，list显示出所有符合的群，但是没有进行匹配度从高到低排序。</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>点击 搜索 框 输入 群 相关 信息 搜索 APP 群 list 出 符合 群 没有 进行 匹配 度 高到 低 排序</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10010000009977</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="C160" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>输入搜索信息后，会显示与所输入信息无关的结果</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>输入 搜索 信息 输入 信息 无关</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>10010000009731</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>搜索较长群组名称时，搜索出来的群组依然不能显示全名。</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>搜索 较长 群组 名称 搜索 群组 依然 不能 全名</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10010000009793</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5</v>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>该软件界面中，查找群组的功能设计不够直观和用户友好。在搜索群组时，用户需要先点击放大镜图标才能开始搜索，这样的操作流程对于习惯直接点击“查找群”的用户来说显得繁琐。这可能会导致用户的使用体验下降，增加他们的操作成本。</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>界面 查找 群组 功能设计 不够 直观 友好 搜索 群组 先 点击 放大镜 图标 搜索 习惯 点击 查找 群 显得 繁琐 下降 增加 成本</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10010000009855</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5</v>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>该软件在用户尝试搜索不存在的群组时，未能提供适当的反馈信息。页面仅显示空白，没有明确告知用户所搜索的群组不存在，导致用户可能误解为搜索过程仍在进行或缺乏结果。这种设计可能会引起用户的困惑和不满，因为他们可能会等待很长时间而得不到任何回应。</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>搜索 群组 未能 提供 适当 反馈 信息 页面 仅 空白 没有 明确 告知 搜索 群组 误解 搜索 过程 进行 缺乏 设计 引起 困惑 不满 等待 长时间 得不到 回应</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>10010000009937</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>输入：搜索框输入群信息
 输出：搜索框找不到想查找的群信息
 即不是所有的查找群搜索框都能查到所需信息</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>输入 搜索 框 输入 群 信息 
  输出 搜索 框找 不到 想 查找 群 信息 
  查找 群 搜索 框都 能查 需 信息</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10010000009402</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="C165" t="n">
+        <v>3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>问题描述：在尝试通过“朋友-我的群组-更多-加入群”路径，跳转到查找群页面进行群组搜索时，若用户在此过程中断开了手机网络连接，则当用户输入群号进行搜索时，系统没有给出任何关于“网络异常”的提示信息，或者“网速较慢”的警告信息。这可能导致用户无法正确识别其网络状态或操作失败的原因。</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>朋友 - 群组 - 更 - 加入 群 路径 跳转 查找 群 页面 进行 群组 搜索 过程 中断 开 手机 网络连接 输入 群号 进行 搜索 系统 没有 给出 网络 异常 提示信息 网速 较慢 警告 信息 无法 正确 识别 网络 状态 失败 原因</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10010000010025</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>搜索内容只局限在APP内，不方便</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>搜索 内容 局限 APP 方便</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10010000009706</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="C167" t="n">
+        <v>3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>建设群组时，使用搜索按钮搜索用户，可以搜索到非好友用户并直接建群。不利于账号安全和用户隐私性能。</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>建设 群组 搜索 按钮 搜索 搜索 非 好友 建群 不利于 账号 安全 隐私 性能</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>10010000009417</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="C168" t="n">
+        <v>3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>该应用程序的群搜索功能存在精确度问题，导致部分匹配的群并未显示在搜索结果的前列。</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>应用程序 群 搜索 精确度 部分 匹配 群 并未 搜索 前列</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10010000009471</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5</v>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>这个软件界面显示了一个联系人列表，其中包括三个用户的部分姓名和头像。其中一个搜索框被标记为可以查找新群，而其他两个则不能。这可能表明该软件在功能上存在不一致或特定的限制条件，导致某些搜索框无法执行预期的操作。</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>软件 界面显示 联系人 列表 包括 三个 部分 姓名 头像 搜索 框 标记 查找 新群 两个 不能 表明 一致 特定 限制 搜索 框 无法 执行 预期</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>10010000009650</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="C170" t="n">
+        <v>3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5</v>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>所搜索出现的群与用户期望的群的相关性不大，例如输入“11”，会出现“1111（6人）”、“111（2人）”、“小杰迷（1人）”、“11（1人）”“11（3人）”等若干条信息，会出现混淆</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>搜索 出现 群 期望 群 相关性 输入 11 出现 1111 111 小杰 迷 11 11 若干条 信息 出现 混淆</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10010000009457</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>在查找群的界面中，用户输入“15”进行搜索时，结果显示的群信息包含了数字“1”、“5”和“15”，并且数量过多，没有按照分类或排序来展示，这导致了用户难以快速找到他们想要的群。</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>查找 群 界面 输入 15 进行 搜索 结果显示 群 信息 包含 数字 15 数量 过多 没有 分类 排序 展示 难以 快速 找到 想要 群</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>10010000009485</v>
+      </c>
+      <c r="B172" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4</v>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>搜索群时，搜索出的匹配结果过于模糊，不够精确，很难找到想要的结果。</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>搜索 群时 搜索 出 匹配 过于 模糊 不够 精确 很难 找到 想要</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>10010000009874</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5</v>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>进行好友/群组查询时，不能直接通过点击搜索框进行查询，必须由点击 放大镜图标 开始查询。用户体验性降低。</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>进行 好友 / 群组 查询 不能 点击 搜索 框 进行 查询 必须 点击   放大镜 图标   查询 体验性 降低</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>10010000009852</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="C174" t="n">
+        <v>3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>在搜索群聊时，输入的关键词并未按照预期显示最匹配的群聊结果。</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>搜索 群聊 输入 关键词 并未 预期 匹配 群聊</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>10010000009755</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="C175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>搜索群加入功能中存在视觉显示问题，用户在搜索列表中无法直观地看到每一项群的可加入状态。这可能导致用户难以判断哪些群可以加入，从而影响了用户的使用体验和效率。</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>搜索 群 加入 视觉 搜索 列表 无法 直观 看到 每一项 群 加入 状态 难以 判断 群 加入 效率</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>10010000010030</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>在搜索群时必须按搜索的放大镜才能输入信息</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>搜索 群时 必须 搜索 放大镜 输入 信息</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
